--- a/Gantt charts/Group_6_Project_Schedule_v2.xlsx
+++ b/Gantt charts/Group_6_Project_Schedule_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wael/Desktop/Desktop/CSUEB/Fall 2025/CS401 SWE/ProjectFolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56FD1BD1-831C-C84A-B43B-F36AC03E807D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5644416-DB8E-2A45-B245-243468C548F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Group 6 Project Schedule</t>
   </si>
@@ -77,13 +77,16 @@
   </si>
   <si>
     <t>UML Diagrams, Prototyping for GUI</t>
+  </si>
+  <si>
+    <t>Phase 2 Project Schedule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +129,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -252,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -285,6 +293,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -300,6 +312,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2266</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>534043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>575638</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>27609</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C63399C-6628-AE32-3A92-57152CB99A9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7318570" y="534043"/>
+          <a:ext cx="9905111" cy="7113566"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -621,26 +682,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="51.1640625" customWidth="1"/>
+    <col min="4" max="4" width="36.5" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="15"/>
+      <c r="E1" s="17" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -656,7 +720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -666,7 +730,7 @@
       <c r="C3" s="6">
         <v>45889</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1"/>
@@ -713,7 +777,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -723,7 +787,7 @@
       <c r="C6" s="6">
         <v>45910</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1"/>
@@ -732,7 +796,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -751,7 +815,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -761,7 +825,7 @@
       <c r="C8" s="6">
         <v>45924</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="1"/>
@@ -789,7 +853,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -808,7 +872,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -818,7 +882,7 @@
       <c r="C11" s="6">
         <v>45945</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="1"/>
@@ -846,7 +910,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -974,6 +1038,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
